--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blumj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05263028-9AC2-48E2-BDAD-1215CFF5781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA7129-A77D-431A-85E0-B263BFE3F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="280">
   <si>
     <t>Variables in Creation Order</t>
   </si>
@@ -794,15 +794,6 @@
     <t>Direct from TuitionAndCosts</t>
   </si>
   <si>
-    <t>Look carefully at these…often they use the same value across district/in-state/out-of-state</t>
-  </si>
-  <si>
-    <t>What happens with those that do not have on-campus housing?</t>
-  </si>
-  <si>
-    <t>What happens with those that do not have meal plans?</t>
-  </si>
-  <si>
     <t>AvgSalary</t>
   </si>
   <si>
@@ -828,12 +819,6 @@
   </si>
   <si>
     <t>Total salary divided by number of instructors (9mo)</t>
-  </si>
-  <si>
-    <t>Any others you might construct?</t>
-  </si>
-  <si>
-    <t>Do these constructions lead you to leave others out?</t>
   </si>
   <si>
     <t>GrantRate</t>
@@ -886,7 +871,10 @@
     <t>Number of students is the divisor for the total count/amount</t>
   </si>
   <si>
-    <t>Rate? What happens with no on-campus housing?</t>
+    <t>Keep as is, consider re-spec later</t>
+  </si>
+  <si>
+    <t>Keep as is, consider re-spec later--consider combining</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1075,9 +1063,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1268,13 +1253,13 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A33" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="22" customWidth="1"/>
     <col min="4" max="4" width="60.42578125" style="15" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76.7109375" customWidth="1"/>
@@ -1285,7 +1270,7 @@
         <v>241</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="21"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -1298,7 +1283,7 @@
       <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -1321,7 +1306,7 @@
       <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="14" t="s">
         <v>233</v>
       </c>
@@ -1340,7 +1325,7 @@
       <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="14" t="s">
         <v>236</v>
       </c>
@@ -1359,7 +1344,7 @@
       <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="14" t="s">
         <v>239</v>
       </c>
@@ -1536,7 +1521,7 @@
     </row>
     <row r="14" spans="1:7" ht="38.25">
       <c r="A14" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>9</v>
@@ -1545,19 +1530,21 @@
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E14" s="16"/>
+        <v>264</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="F14" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>282</v>
+        <v>265</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="38.25">
       <c r="A15" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>9</v>
@@ -1566,61 +1553,65 @@
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5">
+      <c r="A16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>277</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5">
       <c r="A18" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -1629,14 +1620,14 @@
         <v>8</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>282</v>
+        <v>276</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1657,7 +1648,7 @@
         <v>252</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1678,7 +1669,7 @@
         <v>252</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1699,7 +1690,7 @@
         <v>252</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1720,7 +1711,7 @@
         <v>252</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1741,7 +1732,7 @@
         <v>252</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1762,7 +1753,7 @@
         <v>252</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1802,8 +1793,8 @@
       <c r="F26" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>283</v>
+      <c r="G26" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1843,8 +1834,8 @@
       <c r="F28" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>254</v>
+      <c r="G28" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1864,62 +1855,62 @@
       <c r="F29" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>255</v>
+      <c r="G29" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>8</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22">
+        <v>8</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="23">
-        <v>8</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="G31" t="s">
         <v>260</v>
       </c>
-      <c r="E31" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="20" t="s">
-        <v>266</v>
-      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="22"/>
+      <c r="C33" s="15"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="22"/>
+      <c r="C34" s="15"/>
+      <c r="D34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1948,15 +1939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2215,13 +2206,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="29.1" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -2459,14 +2450,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2759,15 +2750,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3019,13 +3010,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="29.1" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -3113,13 +3104,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -3207,13 +3198,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="29.1" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -3403,13 +3394,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="29.1" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -3650,13 +3641,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5" ht="29.1" customHeight="1">
       <c r="A58" s="1" t="s">
@@ -3812,13 +3803,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
     </row>
     <row r="69" spans="1:5" ht="29.1" customHeight="1">
       <c r="A69" s="1" t="s">
@@ -3974,13 +3965,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
     </row>
     <row r="80" spans="1:5" ht="29.1" customHeight="1">
       <c r="A80" s="1" t="s">
@@ -4087,14 +4078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4294,15 +4285,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4498,13 +4489,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="29.1" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -4674,15 +4665,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4964,13 +4955,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" ht="29.1" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -5024,13 +5015,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blumj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBA7129-A77D-431A-85E0-B263BFE3F203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7233567-1FE0-4AD1-AA4B-3FC072C58C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,11 +1074,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A34"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
@@ -1538,7 +1538,7 @@
       <c r="F14" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       <c r="F15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="F16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       <c r="F17" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       <c r="F18" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1939,15 +1939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2206,13 +2206,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="29.1" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -2450,14 +2450,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2750,15 +2750,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3010,13 +3010,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:7" ht="29.1" customHeight="1">
       <c r="A15" s="1" t="s">
@@ -3104,13 +3104,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">
@@ -3198,13 +3198,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" ht="29.1" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -3394,13 +3394,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
     </row>
     <row r="42" spans="1:5" ht="29.1" customHeight="1">
       <c r="A42" s="1" t="s">
@@ -3641,13 +3641,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" ht="29.1" customHeight="1">
       <c r="A58" s="1" t="s">
@@ -3803,13 +3803,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" ht="29.1" customHeight="1">
       <c r="A69" s="1" t="s">
@@ -3965,13 +3965,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
     </row>
     <row r="80" spans="1:5" ht="29.1" customHeight="1">
       <c r="A80" s="1" t="s">
@@ -4078,14 +4078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4285,15 +4285,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4489,13 +4489,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="29.1" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -4665,15 +4665,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4955,13 +4955,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5" ht="29.1" customHeight="1">
       <c r="A17" s="1" t="s">
@@ -5015,13 +5015,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="29.1" customHeight="1">
       <c r="A22" s="1" t="s">

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB7DC06-C5C6-4ADB-A376-54621B3D4B86}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC1BBE8-5AE4-41FE-AA9C-A0590BD2F92F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="348">
   <si>
     <t>Tabs</t>
   </si>
@@ -1149,9 +1149,6 @@
     <t>Student to Room Ratio</t>
   </si>
   <si>
-    <t>roomcap---TuitionAndCosts,sfca2--Aid</t>
-  </si>
-  <si>
     <t>Ratio as described in variable label</t>
   </si>
   <si>
@@ -1180,6 +1177,12 @@
   </si>
   <si>
     <t>Change missings to zero when board is no</t>
+  </si>
+  <si>
+    <t>roomcap---TuitionAndCosts,scfa2--Aid</t>
+  </si>
+  <si>
+    <t>Change missings to zero when room is no</t>
   </si>
 </sst>
 </file>
@@ -1311,11 +1314,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1442,8 +1442,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,6 +1528,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1677,748 +1681,748 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="32"/>
-    <col min="6" max="6" width="22.5703125" style="43" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" style="32" customWidth="1"/>
-    <col min="8" max="16384" width="21.28515625" style="32"/>
+    <col min="1" max="1" width="46.85546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="31"/>
+    <col min="6" max="6" width="22.5703125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="78.85546875" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="21.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="33" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="33" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="38">
-        <v>8</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="37">
+        <v>8</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="38">
-        <v>8</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="37">
+        <v>8</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="38">
-        <v>8</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="38">
-        <v>8</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="37">
+        <v>8</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="38">
-        <v>8</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="B11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="37">
+        <v>8</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="38">
-        <v>8</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="37">
+        <v>8</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="38">
-        <v>8</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="B13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="37">
+        <v>8</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="38">
-        <v>8</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="37">
+        <v>8</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="38">
-        <v>8</v>
-      </c>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="37">
+        <v>8</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="33"/>
+      <c r="F15" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="41" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="38">
-        <v>8</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="37">
+        <v>8</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="41" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="38">
-        <v>8</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="B17" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="38">
-        <v>8</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="37">
+        <v>8</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="39" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="41" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="38">
-        <v>8</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="37">
+        <v>8</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="39" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="41" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="38">
-        <v>8</v>
-      </c>
-      <c r="D20" s="39" t="s">
+      <c r="B20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="37">
+        <v>8</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="39" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="38">
-        <v>8</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="37">
+        <v>8</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="33"/>
+      <c r="F21" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="41" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="38">
-        <v>8</v>
-      </c>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="37">
+        <v>8</v>
+      </c>
+      <c r="D22" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="39" t="s">
+      <c r="E22" s="33"/>
+      <c r="F22" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="G22" s="42" t="s">
+      <c r="G22" s="41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="38">
-        <v>8</v>
-      </c>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="37">
+        <v>8</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="33" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="41"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="38">
-        <v>8</v>
-      </c>
-      <c r="D24" s="37" t="s">
+      <c r="B24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="37">
+        <v>8</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="38">
-        <v>8</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="37">
+        <v>8</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="39" t="s">
+      <c r="E25" s="33"/>
+      <c r="F25" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="G25" s="42" t="s">
+      <c r="G25" s="41" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="B26" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="38">
-        <v>8</v>
-      </c>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="37">
+        <v>8</v>
+      </c>
+      <c r="D26" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="39" t="s">
+      <c r="E26" s="33"/>
+      <c r="F26" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="42" t="s">
+      <c r="G26" s="41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="38">
-        <v>8</v>
-      </c>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="37">
+        <v>8</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="39" t="s">
+      <c r="E27" s="33"/>
+      <c r="F27" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="G27" s="42" t="s">
+      <c r="G27" s="41" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="38">
-        <v>8</v>
-      </c>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="37">
+        <v>8</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="39" t="s">
+      <c r="E28" s="33"/>
+      <c r="F28" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="G28" s="42" t="s">
+      <c r="G28" s="41" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="37">
+        <v>8</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="38">
-        <v>8</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="33" t="s">
+      <c r="G29" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="G29" s="32" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="37">
+        <v>8</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="37">
+        <v>8</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="32" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>338</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="38">
-        <v>8</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="38">
-        <v>8</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="33" t="s">
+      <c r="G31" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="32" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="37">
+        <v>8</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="32" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="38">
-        <v>8</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="33" t="s">
+      <c r="G32" s="41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="37">
+        <v>8</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="G32" s="44" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="38">
-        <v>8</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="33" t="s">
+      <c r="G33" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="G33" s="44" t="s">
-        <v>346</v>
-      </c>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="35">
-        <v>8</v>
-      </c>
-      <c r="D34" s="36" t="s">
+      <c r="B34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="34">
+        <v>8</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="31" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="35">
-        <v>8</v>
-      </c>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="34">
+        <v>8</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="31" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="35"/>
-      <c r="C38" s="36"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2438,688 +2442,688 @@
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" style="16" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="55.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="20"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="28">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="28">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="27">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="28">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="27">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28">
-        <v>8</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="27">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="28">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="27">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="28">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="27">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="28">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="28">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="28">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="27">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="28">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="27">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="28">
-        <v>8</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="27">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="28">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="27">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="28">
-        <v>8</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="28">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="27">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="28">
-        <v>8</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="27">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="28">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="27">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="28">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="27">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="28">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="27">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="28">
-        <v>8</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="27">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="28">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="27">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="28">
-        <v>8</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="27">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="28">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="28">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="27">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="28">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="27">
+        <v>8</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="28">
-        <v>8</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="27">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="19" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="28">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="27">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="28">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="27">
+        <v>8</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="20" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3130,16 +3134,16 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="23">
-        <v>8</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="22">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3150,29 +3154,29 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="23">
-        <v>8</v>
-      </c>
-      <c r="D35" s="17" t="s">
+      <c r="C35" s="22">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>274</v>
       </c>
       <c r="E35" t="s">
         <v>275</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="23" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="16"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="16"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3206,482 +3210,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>6</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>3711</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>7.3</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>3711</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>7.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>5465</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>10.75</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>9176</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>18.05</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>5631</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>11.08</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>14807</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>29.13</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>5651</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>11.12</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>20458</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>40.24</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>5647</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>11.11</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>26105</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>51.35</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>5497</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>10.81</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>31602</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>62.17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>5340</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>10.5</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>36942</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>72.67</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>5249</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>10.33</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>42191</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>4681</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>9.2100000000000009</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>46872</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>92.21</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>2640</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>5.19</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>49512</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>97.4</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>1322</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>2.6</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>50834</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>100</v>
       </c>
     </row>
@@ -3717,272 +3721,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
         <v>6</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
         <v>6</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
         <v>6</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4">
         <v>6</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
         <v>10</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4017,1294 +4021,1294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>120</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>16</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.25</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>16</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>2845</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>45.24</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>2861</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>45.49</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>1639</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>26.06</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>4500</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>71.55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>1789</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>28.45</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>6289</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>16</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>0.25</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>16</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>1994</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>31.71</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>2010</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>31.96</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>1868</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>29.7</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>3878</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>61.66</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>2411</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>38.340000000000003</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>6289</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>16</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>0.25</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>16</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>178</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>2.83</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>194</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>3.08</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>1611</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>25.62</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>1805</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>28.7</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>1108</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>17.62</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>2913</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>46.32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="7">
         <v>531</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>8.44</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>3444</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>54.76</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="7">
         <v>702</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>11.16</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>4146</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>65.92</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="8">
-        <v>12</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="B36" s="7">
+        <v>12</v>
+      </c>
+      <c r="C36" s="8">
         <v>0.19</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>4158</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>66.12</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="7">
         <v>719</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>11.43</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>4877</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>77.55</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="7">
         <v>158</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>2.5099999999999998</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>5035</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>80.06</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>1254</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>19.940000000000001</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>6289</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>3</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>0.05</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>3</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>1484</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>23.6</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>1487</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>23.64</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="7">
         <v>754</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>11.99</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>2241</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>35.630000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <v>810</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>12.88</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>3051</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>48.51</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <v>1531</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>24.34</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>4582</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>72.86</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>185</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>2.94</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>4767</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>75.8</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>131</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>2.08</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>4898</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>77.88</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="7">
         <v>123</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>1.96</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>5021</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>79.84</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>424</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>6.74</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>5445</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>86.58</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="7">
         <v>321</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>5766</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>91.68</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="7">
         <v>350</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>5.57</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>6116</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>97.25</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="7">
         <v>112</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>1.78</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>6228</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>99.03</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="7">
         <v>61</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>0.97</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>6289</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="7">
         <v>170</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>2.7</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>170</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>2.7</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="7">
         <v>15</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>0.24</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>185</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>2.94</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="7">
         <v>297</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>4.72</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>482</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>7.66</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="7">
         <v>2026</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>32.21</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>2508</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>39.880000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="7">
         <v>426</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>6.77</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>2934</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>46.65</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="7">
         <v>1306</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>20.77</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>4240</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>67.42</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="7">
         <v>5</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>0.08</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>4245</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>67.5</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="7">
         <v>2044</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>32.5</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>6289</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>2362</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>37.56</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>2362</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>37.56</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="7">
         <v>1306</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>20.77</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>3668</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>58.32</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>608</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>9.67</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>4276</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>67.989999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="7">
         <v>575</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>9.14</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>4851</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>77.13</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>656</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="8">
         <v>10.43</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>5507</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>87.57</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="7">
         <v>319</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="8">
         <v>5.07</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>5826</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>92.64</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="7">
         <v>190</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="8">
         <v>3.02</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>6016</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>95.66</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="7">
         <v>273</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="8">
         <v>4.34</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>6289</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="7">
         <v>284</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>4.5199999999999996</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>284</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="7">
         <v>5339</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>84.89</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>5623</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>89.41</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="7">
         <v>666</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>10.59</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="7">
         <v>6289</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>100</v>
       </c>
     </row>
@@ -5345,179 +5349,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>37</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>1949</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>50</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>1949</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>1949</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>50</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>3898</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>100</v>
       </c>
     </row>
@@ -5552,351 +5556,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>2444</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>15.89</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>2444</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>15.89</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>2336</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>15.19</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>4780</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>31.08</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>2302</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>14.97</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>7082</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>46.04</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>2669</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>17.350000000000001</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>9751</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>63.39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>797</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>5.18</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>10548</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>68.569999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>973</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>6.33</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>11521</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>74.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>3861</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>25.1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>15382</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>100</v>
       </c>
     </row>
@@ -5932,429 +5936,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>2074</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>53.58</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>2074</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>53.58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>1797</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>46.42</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>3871</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>1062</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>27.43</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1062</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>27.43</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>806</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>20.82</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1868</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>48.26</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>2003</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>51.74</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>3871</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>100</v>
       </c>
     </row>
@@ -6390,1430 +6394,1430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>-2</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>-1</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>-1</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>-2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>-2</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>-2</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="5">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>13</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>13</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>-3</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>2</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>3</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>-2</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>-2</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>-1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>-1</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>-3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>-3</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>2</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>2</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>3</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>3</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>5</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>6</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>6</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>7</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>7</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="5">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5">
-        <v>8</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="C43" s="4">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>9</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>9</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>-3</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>-3</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>1</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>2</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>2</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>3</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>3</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>-2</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>-2</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>-1</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>-1</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>1</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>2</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>2</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>3</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>3</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>4</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>4</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>6</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>6</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>-2</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>-2</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>0</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>0</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>1</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>-3</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>-3</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>11</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>11</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C62" s="5">
-        <v>12</v>
-      </c>
-      <c r="D62" s="5">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="C62" s="4">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>13</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>13</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>21</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>21</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>22</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>22</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>23</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>23</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>31</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>31</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>32</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>32</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>33</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>33</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>41</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>41</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>42</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>42</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>43</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>43</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>-2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>-2</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>-1</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>-1</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>1</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>2</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>-2</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>-2</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>-1</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>-1</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>1</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>1</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>2</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>2</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>-2</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>-2</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>-1</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>-1</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>0</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>0</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>1</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>1</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7846,95 +7850,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>245</v>
       </c>
     </row>

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC1BBE8-5AE4-41FE-AA9C-A0590BD2F92F}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61ABF2CA-8130-429D-9BA5-C9D6D1C06DD9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="GradRates" sheetId="9" r:id="rId9"/>
     <sheet name="RegModel" sheetId="10" r:id="rId10"/>
     <sheet name="RegModelUpdate" sheetId="11" r:id="rId11"/>
+    <sheet name="ModelResults" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="382">
   <si>
     <t>Tabs</t>
   </si>
@@ -732,9 +733,6 @@
   </si>
   <si>
     <t>TUITPLTYPE</t>
-  </si>
-  <si>
-    <t>GradRates Data Set</t>
   </si>
   <si>
     <t>Length</t>
@@ -1184,6 +1182,111 @@
   <si>
     <t>Change missings to zero when room is no</t>
   </si>
+  <si>
+    <t>PredictorVars</t>
+  </si>
+  <si>
+    <t>Leave out for now…</t>
+  </si>
+  <si>
+    <t>Potential Predictor Variables</t>
+  </si>
+  <si>
+    <t>A list from RegModelUpdate</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Selection Method</t>
+  </si>
+  <si>
+    <t>Chosen during process</t>
+  </si>
+  <si>
+    <t>Things like: Stepwise, Forward, Backward</t>
+  </si>
+  <si>
+    <t>Select Criterion</t>
+  </si>
+  <si>
+    <t>Stop Criterion</t>
+  </si>
+  <si>
+    <t>Choose Criterion</t>
+  </si>
+  <si>
+    <t>Probably make these all the same</t>
+  </si>
+  <si>
+    <t>Something like: AIC, SBC, …</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Choose</t>
+  </si>
+  <si>
+    <t>ResponseVar</t>
+  </si>
+  <si>
+    <t>Response Variable</t>
+  </si>
+  <si>
+    <t>From RegModelUpdate</t>
+  </si>
+  <si>
+    <t>ObsRead</t>
+  </si>
+  <si>
+    <t>ObsUsed</t>
+  </si>
+  <si>
+    <t>Observations Read</t>
+  </si>
+  <si>
+    <t>Observations Used</t>
+  </si>
+  <si>
+    <t>Returned by GLMSELECT</t>
+  </si>
+  <si>
+    <t>ParamEstimate</t>
+  </si>
+  <si>
+    <t>CriterionValue</t>
+  </si>
+  <si>
+    <t>Variable Selected</t>
+  </si>
+  <si>
+    <t>Parameter Estimate</t>
+  </si>
+  <si>
+    <t>Value of Select Criterion</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Step in Selection Process</t>
+  </si>
+  <si>
+    <t>Sorting</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
 </sst>
 </file>
 
@@ -1195,7 +1298,7 @@
     <numFmt numFmtId="166" formatCode="#######0"/>
     <numFmt numFmtId="167" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1221,8 +1324,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1245,6 +1354,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAFBFE"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1314,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1445,6 +1560,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,10 +1805,10 @@
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1697,102 +1823,114 @@
     <col min="8" max="16384" width="21.28515625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="11" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="14" t="s">
         <v>234</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="F3" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="33" t="s">
         <v>247</v>
       </c>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="32" t="s">
         <v>248</v>
       </c>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>12</v>
@@ -1801,21 +1939,21 @@
         <v>8</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>12</v>
@@ -1824,21 +1962,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F8" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>12</v>
@@ -1847,21 +1985,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>12</v>
@@ -1870,21 +2008,21 @@
         <v>8</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F10" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>12</v>
@@ -1893,21 +2031,21 @@
         <v>8</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>250</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="36" t="s">
         <v>12</v>
@@ -1916,22 +2054,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="33" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>97</v>
-      </c>
       <c r="B13" s="36" t="s">
         <v>12</v>
       </c>
@@ -1939,21 +2077,21 @@
         <v>8</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>12</v>
@@ -1962,21 +2100,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E14" s="33"/>
       <c r="F14" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="41" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>12</v>
@@ -1985,19 +2121,21 @@
         <v>8</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="33"/>
+        <v>259</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="F15" s="38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" s="36" t="s">
         <v>12</v>
@@ -2006,21 +2144,21 @@
         <v>8</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>12</v>
@@ -2029,21 +2167,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E17" s="33"/>
       <c r="F17" s="38" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>12</v>
@@ -2052,19 +2188,19 @@
         <v>8</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="38" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>255</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>12</v>
@@ -2073,11 +2209,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G19" s="41" t="s">
         <v>321</v>
@@ -2085,7 +2221,7 @@
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>12</v>
@@ -2094,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="38" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>12</v>
@@ -2115,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>12</v>
@@ -2135,20 +2271,18 @@
       <c r="C22" s="37">
         <v>8</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>322</v>
-      </c>
+      <c r="D22" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="41"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>12</v>
@@ -2157,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="32" t="s">
@@ -2167,7 +2301,7 @@
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>12</v>
@@ -2175,18 +2309,20 @@
       <c r="C24" s="37">
         <v>8</v>
       </c>
-      <c r="D24" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32" t="s">
+      <c r="D24" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="G24" s="41"/>
+      <c r="G24" s="41" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="B25" s="36" t="s">
         <v>12</v>
@@ -2195,19 +2331,19 @@
         <v>8</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="36" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B26" s="36" t="s">
         <v>12</v>
@@ -2216,19 +2352,19 @@
         <v>8</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="E26" s="33"/>
       <c r="F26" s="38" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="B27" s="36" t="s">
         <v>12</v>
@@ -2237,19 +2373,19 @@
         <v>8</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="E27" s="33"/>
       <c r="F27" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="36" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B28" s="36" t="s">
         <v>12</v>
@@ -2257,41 +2393,41 @@
       <c r="C28" s="37">
         <v>8</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="37">
+        <v>8</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="37">
-        <v>8</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>189</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="32" t="s">
-        <v>339</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>337</v>
+        <v>192</v>
       </c>
       <c r="B30" s="36" t="s">
         <v>12</v>
@@ -2300,19 +2436,19 @@
         <v>8</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="32" t="s">
-        <v>346</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="36" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>12</v>
@@ -2321,19 +2457,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="G31" s="31" t="s">
         <v>342</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B32" s="36" t="s">
         <v>12</v>
@@ -2342,40 +2478,39 @@
         <v>8</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="32" t="s">
         <v>343</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="37">
-        <v>8</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>345</v>
+      <c r="A33" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="34">
+        <v>8</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B34" s="31" t="s">
         <v>12</v>
@@ -2384,45 +2519,25 @@
         <v>8</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>274</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="34">
-        <v>8</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>277</v>
-      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="34"/>
       <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2432,10 +2547,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:G38"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2451,100 +2569,112 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="14" t="s">
         <v>234</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="F3" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="26" t="s">
         <v>247</v>
       </c>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="19" t="s">
         <v>248</v>
       </c>
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="27">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="19"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -2553,21 +2683,21 @@
         <v>8</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -2576,21 +2706,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -2599,21 +2729,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -2622,21 +2752,21 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2645,21 +2775,21 @@
         <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>250</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
@@ -2668,22 +2798,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="G12" s="26" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2691,21 +2821,21 @@
         <v>8</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -2714,21 +2844,19 @@
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="E14" s="19"/>
       <c r="F14" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -2737,19 +2865,21 @@
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="19"/>
+        <v>259</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="F15" s="4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -2758,21 +2888,21 @@
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>12</v>
@@ -2781,21 +2911,19 @@
         <v>8</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>240</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E17" s="19"/>
       <c r="F17" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -2804,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="4" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -2824,20 +2952,20 @@
       <c r="C19" s="27">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="4" t="s">
-        <v>280</v>
-      </c>
       <c r="G19" s="28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>12</v>
@@ -2845,20 +2973,20 @@
       <c r="C20" s="27">
         <v>8</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="D20" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="19"/>
       <c r="F20" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -2866,20 +2994,20 @@
       <c r="C21" s="27">
         <v>8</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="4" t="s">
-        <v>287</v>
-      </c>
       <c r="G21" s="28" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
@@ -2888,19 +3016,19 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>12</v>
@@ -2909,19 +3037,19 @@
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -2929,20 +3057,20 @@
       <c r="C24" s="27">
         <v>8</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="D24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>298</v>
+      <c r="A25" s="29" t="s">
+        <v>301</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>12</v>
@@ -2950,20 +3078,20 @@
       <c r="C25" s="27">
         <v>8</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="4" t="s">
-        <v>300</v>
-      </c>
       <c r="G25" s="28" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
@@ -2971,20 +3099,20 @@
       <c r="C26" s="27">
         <v>8</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E26" s="4"/>
+      <c r="D26" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="19"/>
       <c r="F26" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -2992,20 +3120,20 @@
       <c r="C27" s="27">
         <v>8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="G27" s="28" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>309</v>
+      <c r="A28" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>12</v>
@@ -3014,19 +3142,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>311</v>
+        <v>189</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>187</v>
+        <v>311</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>12</v>
@@ -3035,18 +3162,19 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="19" t="s">
-        <v>268</v>
+        <v>313</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
@@ -3055,19 +3183,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="F30" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>12</v>
@@ -3076,18 +3203,19 @@
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>193</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="19" t="s">
-        <v>268</v>
+        <v>315</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>12</v>
@@ -3096,40 +3224,39 @@
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="27">
-        <v>8</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="28" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="22">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="23" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -3138,45 +3265,25 @@
         <v>8</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+      <c r="E34" t="s">
+        <v>274</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G34" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>273</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="22">
-        <v>8</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="E35" t="s">
-        <v>275</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>319</v>
-      </c>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="30"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="15"/>
-      <c r="C38" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3185,6 +3292,288 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B34EA5-9FEB-48CB-8FD8-6F76ABC8B763}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="46">
+        <v>50</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="48">
+        <v>200</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5542,7 +5931,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" activeCellId="1" sqref="G1:G1048576 B5"/>
+      <selection activeCell="B5" activeCellId="1" sqref="A1:G1048576 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7832,10 +8221,10 @@
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="G1:G1048576 A3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7851,95 +8240,84 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="A2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="F3" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61ABF2CA-8130-429D-9BA5-C9D6D1C06DD9}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A364BC-60AF-4649-B1EA-1EFE44983F33}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="386">
   <si>
     <t>Tabs</t>
   </si>
@@ -1286,6 +1286,18 @@
   </si>
   <si>
     <t>Third</t>
+  </si>
+  <si>
+    <t>Fourth</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>From the full set of steps in the selection process--a superset of the final variables chosen</t>
+  </si>
+  <si>
+    <t>This may be missing for some steps</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1557,9 +1569,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1571,6 +1580,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3303,7 +3318,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3314,7 +3329,7 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3340,49 +3355,49 @@
       <c r="G1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="44" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>50</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="46" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="47">
         <v>200</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3402,10 +3417,10 @@
       <c r="F4" t="s">
         <v>353</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="43" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3425,13 +3440,13 @@
       <c r="F5" t="s">
         <v>353</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="23" t="s">
         <v>358</v>
       </c>
       <c r="H5" t="s">
         <v>359</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3449,7 +3464,7 @@
       <c r="F6" t="s">
         <v>353</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="23" t="s">
         <v>358</v>
       </c>
       <c r="H6" t="s">
@@ -3472,103 +3487,112 @@
       <c r="F7" t="s">
         <v>353</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="23" t="s">
         <v>358</v>
       </c>
       <c r="H7" t="s">
         <v>359</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="43" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>369</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="43" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="B10" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="43" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="44" t="s">
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>73</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>370</v>
       </c>
+      <c r="G11" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="B12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>370</v>
       </c>
+      <c r="G12" s="23" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="B13" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>370</v>
       </c>
     </row>
@@ -3599,15 +3623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3866,13 +3890,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4110,14 +4134,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4410,15 +4434,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4670,13 +4694,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -4764,13 +4788,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -4858,13 +4882,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -5054,13 +5078,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -5301,13 +5325,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
     </row>
     <row r="58" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -5463,13 +5487,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
     </row>
     <row r="69" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -5625,13 +5649,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
     </row>
     <row r="80" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5738,14 +5762,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5945,15 +5969,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6149,13 +6173,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6325,15 +6349,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6615,13 +6639,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -6675,13 +6699,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{1FD97D13-311D-4AA8-9A73-9F69BE5A4E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A364BC-60AF-4649-B1EA-1EFE44983F33}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6851F243-87E8-4FE7-8B45-82C2399654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,8 @@
     <sheet name="TuitionAndCosts" sheetId="7" r:id="rId7"/>
     <sheet name="IPEDSFormats" sheetId="8" r:id="rId8"/>
     <sheet name="GradRates" sheetId="9" r:id="rId9"/>
-    <sheet name="RegModel" sheetId="10" r:id="rId10"/>
-    <sheet name="RegModelUpdate" sheetId="11" r:id="rId11"/>
-    <sheet name="ModelResults" sheetId="12" r:id="rId12"/>
+    <sheet name="RegModel" sheetId="11" r:id="rId10"/>
+    <sheet name="ModelResults" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="369">
   <si>
     <t>Tabs</t>
   </si>
@@ -780,9 +779,6 @@
     <t>UnitID--GradRates</t>
   </si>
   <si>
-    <t>Matching/Key variable, present in all data sets used</t>
-  </si>
-  <si>
     <t>Rate--GradRates</t>
   </si>
   <si>
@@ -845,9 +841,6 @@
     <t>ufloant--Aid, scfa2--Aid</t>
   </si>
   <si>
-    <t>Direct from TuitionAndCosts</t>
-  </si>
-  <si>
     <t>AvgSalary</t>
   </si>
   <si>
@@ -857,9 +850,6 @@
     <t>sa09mot--Salaries, sa09mct--Salaries</t>
   </si>
   <si>
-    <t>Total salary divided by number of instructors (9mo)</t>
-  </si>
-  <si>
     <t>StuFacRatio</t>
   </si>
   <si>
@@ -870,9 +860,6 @@
   </si>
   <si>
     <t>sa09mct--Salaries, scfa2--Aid</t>
-  </si>
-  <si>
-    <t>Total undergraduates divided by number of instructors (9mo)</t>
   </si>
   <si>
     <t>InDistrictT</t>
@@ -1099,60 +1086,6 @@
     </r>
   </si>
   <si>
-    <t>tuition1 and tuition2--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>1 when tuition1 and tuition2 are different, 0 if not</t>
-  </si>
-  <si>
-    <t>Absolute difference between the two values</t>
-  </si>
-  <si>
-    <t>fee1 and fee2--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>1 when fee1 and fee2 are different, 0 if not</t>
-  </si>
-  <si>
-    <t>Rename of tuition2 from TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>Rename of fee2 from TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>tuition3 and tuition2--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>1 when tuition3 and tuition2 are different, 0 if not</t>
-  </si>
-  <si>
-    <t>Difference between out-of-state and in-state tuition</t>
-  </si>
-  <si>
-    <t>OutStateTDiff</t>
-  </si>
-  <si>
-    <t>OutStateFDiff</t>
-  </si>
-  <si>
-    <t>fee3 and fee2--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>1 when fee3 and fee2 are different, 0 if not</t>
-  </si>
-  <si>
-    <t>Difference between out-of-state and in-state fees</t>
-  </si>
-  <si>
-    <t>Student to Room Ratio</t>
-  </si>
-  <si>
-    <t>Ratio as described in variable label</t>
-  </si>
-  <si>
-    <t>ScaledHousingCap</t>
-  </si>
-  <si>
     <t>Housing</t>
   </si>
   <si>
@@ -1165,33 +1098,6 @@
     <t>board--TuitionAndCosts</t>
   </si>
   <si>
-    <t>Remap no to zero, leave other levels as in original encoding</t>
-  </si>
-  <si>
-    <t>roomamt--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>boardamt--TuitionAndCosts</t>
-  </si>
-  <si>
-    <t>Change missings to zero when board is no</t>
-  </si>
-  <si>
-    <t>roomcap---TuitionAndCosts,scfa2--Aid</t>
-  </si>
-  <si>
-    <t>Change missings to zero when room is no</t>
-  </si>
-  <si>
-    <t>PredictorVars</t>
-  </si>
-  <si>
-    <t>Leave out for now…</t>
-  </si>
-  <si>
-    <t>Potential Predictor Variables</t>
-  </si>
-  <si>
     <t>A list from RegModelUpdate</t>
   </si>
   <si>
@@ -1298,6 +1204,48 @@
   </si>
   <si>
     <t>This may be missing for some steps</t>
+  </si>
+  <si>
+    <t>Matching/Key variable, present in all data sets used, not used for modeling</t>
+  </si>
+  <si>
+    <t>Potential Quantitative Predictor</t>
+  </si>
+  <si>
+    <t>Remap no to zero, leave other levels as in original encoding, remove format (or create new)</t>
+  </si>
+  <si>
+    <t>Potential Categorical Predictor</t>
+  </si>
+  <si>
+    <t>General Notes</t>
+  </si>
+  <si>
+    <t>Match column as listed here</t>
+  </si>
+  <si>
+    <t>ClassVars</t>
+  </si>
+  <si>
+    <t>Categorical Variables Permitted as Predictors</t>
+  </si>
+  <si>
+    <t>List matching column order from RegModel data spec</t>
+  </si>
+  <si>
+    <t>QuantVars</t>
+  </si>
+  <si>
+    <t>Quantitative Variables Permitted as Predictors</t>
+  </si>
+  <si>
+    <t>Fifth</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Seventh</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1258,7 @@
     <numFmt numFmtId="166" formatCode="#######0"/>
     <numFmt numFmtId="167" formatCode="##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1342,8 +1290,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,7 +1325,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1491,12 +1458,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1533,19 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,36 +1503,30 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,10 +1612,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1816,1489 +1755,835 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFE46C0A"/>
-  </sheetPr>
-  <dimension ref="A1:G37"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="21.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="46.85546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="31"/>
-    <col min="6" max="6" width="22.5703125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="78.85546875" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="21.28515625" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="37">
-        <v>8</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="37">
-        <v>8</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="37">
-        <v>8</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="37">
-        <v>8</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="37">
-        <v>8</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="37">
-        <v>8</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="37">
-        <v>8</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="37">
-        <v>8</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37">
-        <v>8</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="37">
-        <v>8</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="37">
-        <v>8</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="37">
-        <v>8</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="37">
-        <v>8</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="37">
-        <v>8</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="37">
-        <v>8</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="37">
-        <v>8</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="37">
-        <v>8</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="37">
-        <v>8</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="37">
-        <v>8</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="37">
-        <v>8</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="37">
-        <v>8</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="37">
-        <v>8</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="37">
-        <v>8</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="37">
-        <v>8</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="37">
-        <v>8</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="37">
-        <v>8</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="37">
-        <v>8</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="34">
-        <v>8</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="34">
-        <v>8</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A34"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="21"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="H3" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="25">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="19" t="s">
+      <c r="G5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="25">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="25">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="25">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="25">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="25">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="25">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="25">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="25">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="25">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="25">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="25">
+        <v>8</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="25">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="25">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="25">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="25">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="20">
+        <v>8</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="20">
+        <v>8</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="27">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="H25" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="I25" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="27">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="25">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G26" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G7" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="I26" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="27">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="25">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G27" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="I27" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="27">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="25">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G28" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="I28" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="27">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="25">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="G29" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="I29" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="27">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="25">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="G30" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="I30" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="27">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="25">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="F31" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="G31" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="27">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="27">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="27">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="27">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="27">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="27">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="27">
-        <v>8</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="27">
-        <v>8</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="27">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="27">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="27">
-        <v>8</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="27">
-        <v>8</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="27">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="27">
-        <v>8</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="27">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="27">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="I31" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="31">
+        <v>8</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="27">
-        <v>8</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="27">
-        <v>8</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C33" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="31">
+        <v>8</v>
+      </c>
+      <c r="E33" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="27">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="27">
-        <v>8</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="22">
-        <v>8</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>272</v>
-      </c>
-      <c r="B34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="22">
-        <v>8</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="23" t="s">
+      <c r="F33" s="30"/>
+      <c r="G33" s="29" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="30"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="15"/>
-      <c r="C37" s="30"/>
+      <c r="H33" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="15"/>
+      <c r="D34" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3310,15 +2595,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B34EA5-9FEB-48CB-8FD8-6F76ABC8B763}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3326,10 +2611,10 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
-    <col min="7" max="7" width="43" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="21" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3340,7 +2625,7 @@
       <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>231</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -3355,102 +2640,106 @@
       <c r="G1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="I1" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="39">
+        <v>50</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="I2" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="41">
+        <v>200</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="43" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="I3" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="45">
-        <v>50</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>364</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46" t="s">
+      <c r="C4" s="41">
+        <v>200</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="47">
-        <v>200</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>350</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="H5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I5" s="43"/>
+        <v>322</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -3459,21 +2748,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>358</v>
+        <v>322</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>359</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -3482,118 +2772,141 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="G7" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="H7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>366</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="I12" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>376</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="I11" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>385</v>
-      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>370</v>
+      <c r="A13" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3623,15 +2936,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3890,13 +3203,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4134,14 +3447,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4434,15 +3747,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4694,13 +4007,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -4788,13 +4101,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -4882,13 +4195,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
     </row>
     <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -5078,13 +4391,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -5325,13 +4638,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
     </row>
     <row r="58" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -5487,13 +4800,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -5649,13 +4962,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48" t="s">
+      <c r="A79" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
     </row>
     <row r="80" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5762,14 +5075,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5969,15 +5282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6173,13 +5486,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -6349,15 +5662,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6639,13 +5952,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -6699,13 +6012,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">

--- a/IPEDS Data Specs Updated.xlsx
+++ b/IPEDS Data Specs Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/blumj_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6851F243-87E8-4FE7-8B45-82C2399654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{6851F243-87E8-4FE7-8B45-82C2399654F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096A5E84-152F-435C-B687-768DB597427F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="368">
   <si>
     <t>Tabs</t>
   </si>
@@ -1122,9 +1122,6 @@
     <t>Choose Criterion</t>
   </si>
   <si>
-    <t>Probably make these all the same</t>
-  </si>
-  <si>
     <t>Something like: AIC, SBC, …</t>
   </si>
   <si>
@@ -1185,18 +1182,6 @@
     <t>Sorting</t>
   </si>
   <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
-  </si>
-  <si>
-    <t>Fourth</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -1221,31 +1206,43 @@
     <t>General Notes</t>
   </si>
   <si>
-    <t>Match column as listed here</t>
-  </si>
-  <si>
     <t>ClassVars</t>
   </si>
   <si>
     <t>Categorical Variables Permitted as Predictors</t>
   </si>
   <si>
-    <t>List matching column order from RegModel data spec</t>
-  </si>
-  <si>
     <t>QuantVars</t>
   </si>
   <si>
     <t>Quantitative Variables Permitted as Predictors</t>
   </si>
   <si>
-    <t>Fifth</t>
-  </si>
-  <si>
-    <t>Sixth</t>
-  </si>
-  <si>
-    <t>Seventh</t>
+    <t>Match column order as listed here</t>
+  </si>
+  <si>
+    <t>List matching column order from RegModel data spec--space separated</t>
+  </si>
+  <si>
+    <t>Interactions</t>
+  </si>
+  <si>
+    <t>2-way Interactions Permitted</t>
+  </si>
+  <si>
+    <t>User-defined</t>
+  </si>
+  <si>
+    <t>Y or N (Yes/No) -- no more than two-factor interactions permitted</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Hierarchy Enforced</t>
+  </si>
+  <si>
+    <t>Y or N (Yes/No) (Single or None)</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1507,9 +1504,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1529,6 +1523,10 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,16 +1759,16 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="21"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="20" customWidth="1"/>
     <col min="5" max="5" width="42.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" customWidth="1"/>
@@ -1779,8 +1777,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>359</v>
+      <c r="A1" s="36" t="s">
+        <v>354</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -1806,7 +1804,7 @@
     </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -1823,7 +1821,7 @@
         <v>245</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1844,7 +1842,7 @@
         <v>246</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1863,6 +1861,9 @@
         <v>247</v>
       </c>
       <c r="H4" s="24"/>
+      <c r="I4" s="34" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -1886,8 +1887,8 @@
       <c r="H5" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>356</v>
+      <c r="I5" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
@@ -1910,8 +1911,8 @@
       <c r="H6" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I6" s="35" t="s">
-        <v>356</v>
+      <c r="I6" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1936,8 +1937,8 @@
       <c r="H7" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>356</v>
+      <c r="I7" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1962,8 +1963,8 @@
       <c r="H8" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>356</v>
+      <c r="I8" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1986,8 +1987,8 @@
       <c r="H9" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>356</v>
+      <c r="I9" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2010,8 +2011,8 @@
       <c r="H10" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>356</v>
+      <c r="I10" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2034,8 +2035,8 @@
       <c r="H11" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>356</v>
+      <c r="I11" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2058,8 +2059,8 @@
       <c r="H12" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>356</v>
+      <c r="I12" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2082,8 +2083,8 @@
       <c r="H13" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="35" t="s">
-        <v>356</v>
+      <c r="I13" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2106,8 +2107,8 @@
       <c r="H14" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="35" t="s">
-        <v>356</v>
+      <c r="I14" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2130,8 +2131,8 @@
       <c r="H15" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="I15" s="35" t="s">
-        <v>356</v>
+      <c r="I15" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2154,8 +2155,8 @@
       <c r="H16" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="I16" s="35" t="s">
-        <v>356</v>
+      <c r="I16" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
@@ -2178,8 +2179,8 @@
       <c r="H17" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>356</v>
+      <c r="I17" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -2202,8 +2203,8 @@
       <c r="H18" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>356</v>
+      <c r="I18" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -2226,8 +2227,8 @@
       <c r="H19" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>356</v>
+      <c r="I19" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -2250,8 +2251,8 @@
       <c r="H20" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>356</v>
+      <c r="I20" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -2274,8 +2275,8 @@
       <c r="H21" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>356</v>
+      <c r="I21" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -2298,8 +2299,8 @@
       <c r="H22" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>356</v>
+      <c r="I22" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -2321,8 +2322,8 @@
       <c r="H23" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="I23" s="35" t="s">
-        <v>356</v>
+      <c r="I23" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="38.25" x14ac:dyDescent="0.2">
@@ -2347,8 +2348,8 @@
       <c r="H24" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I24" s="35" t="s">
-        <v>356</v>
+      <c r="I24" s="34" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -2373,8 +2374,8 @@
       <c r="H25" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>358</v>
+      <c r="I25" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -2399,8 +2400,8 @@
       <c r="H26" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>358</v>
+      <c r="I26" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -2425,8 +2426,8 @@
       <c r="H27" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I27" s="36" t="s">
-        <v>358</v>
+      <c r="I27" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -2451,8 +2452,8 @@
       <c r="H28" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>358</v>
+      <c r="I28" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -2477,8 +2478,8 @@
       <c r="H29" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I29" s="36" t="s">
-        <v>358</v>
+      <c r="I29" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -2503,8 +2504,8 @@
       <c r="H30" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I30" s="36" t="s">
-        <v>358</v>
+      <c r="I30" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -2529,8 +2530,8 @@
       <c r="H31" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I31" s="36" t="s">
-        <v>358</v>
+      <c r="I31" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
@@ -2553,8 +2554,8 @@
       <c r="H32" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="I32" s="36" t="s">
-        <v>358</v>
+      <c r="I32" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -2575,10 +2576,10 @@
         <v>318</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>358</v>
+        <v>352</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -2600,10 +2601,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2615,10 +2616,9 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2640,153 +2640,154 @@
       <c r="G1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="H1" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="38">
+        <v>50</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="39">
-        <v>50</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="40"/>
-      <c r="I2" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="C3" s="40">
+        <v>200</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="40">
+        <v>200</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B5" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="41">
-        <v>200</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="C5" s="40">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="G3" s="43" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="H5" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="41">
-        <v>200</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="C6" s="40">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="I4" s="33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G6" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>320</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="H6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>330</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F7" t="s">
         <v>322</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2795,118 +2796,161 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
         <v>322</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" t="s">
         <v>327</v>
       </c>
-      <c r="H8" t="s">
-        <v>328</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="H8" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" t="s">
+        <v>322</v>
+      </c>
+      <c r="G10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="B12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F12" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="33" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="33" t="s">
+      <c r="B15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="G15" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="33" t="s">
+      <c r="B16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>339</v>
+      <c r="F16" s="33" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2936,15 +2980,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3203,13 +3247,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3447,14 +3491,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3747,15 +3791,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4007,13 +4051,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -4101,13 +4145,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -4195,13 +4239,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4391,13 +4435,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -4638,13 +4682,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -4800,13 +4844,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -4962,13 +5006,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
     </row>
     <row r="80" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -5075,14 +5119,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5282,15 +5326,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5486,13 +5530,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -5662,15 +5706,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5952,13 +5996,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -6012,13 +6056,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
